--- a/Desarrollo/TPC/Gestión/TPC-CP.xlsx
+++ b/Desarrollo/TPC/Gestión/TPC-CP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="190">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Idear Proyecto innovador</t>
   </si>
   <si>
-    <t>Monzon/DB, Zegarra/JP, Rojas S./AF, Maylle/DF, Diaz/QA, Alva/AS</t>
+    <t>Monzon/DB, Zegarra/JP, Rojas S./AF, Diaz/QA, Alva/AS</t>
   </si>
   <si>
     <t>S1</t>
@@ -257,7 +257,7 @@
     <t>TPC-DEUI</t>
   </si>
   <si>
-    <t>Rojas R./UX, Zegarra/JP, Maylle/DF, Rojas S./AF</t>
+    <t>Rojas R./UX, Zegarra/JP, Rojas S./AF</t>
   </si>
   <si>
     <t>S3 -S4</t>
@@ -272,7 +272,7 @@
     <t>TPC-GE</t>
   </si>
   <si>
-    <t>Rojas R./UX, Alva/AS, Maylle/DF</t>
+    <t>Rojas R./UX, Alva/AS</t>
   </si>
   <si>
     <t>Especificar el diseño de la Base de Datos</t>
@@ -308,7 +308,7 @@
     <t>TPC-RDS</t>
   </si>
   <si>
-    <t>Zegarra/JP, Monzon/DB, Alva/AS, Maylle/DF</t>
+    <t>Zegarra/JP, Monzon/DB, Alva/AS</t>
   </si>
   <si>
     <t>S5</t>
@@ -359,9 +359,6 @@
     <t>Modulo Página Principal</t>
   </si>
   <si>
-    <t>Monzon/DB, Maylle/DF</t>
-  </si>
-  <si>
     <t>HU_002 - Implementar módulo de autenticación de usuario</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>Verificar y finalizar la Arquitectura y Diseño del Software</t>
   </si>
   <si>
-    <t>Zegarra/JP, Monzon/DB, Alva/AS</t>
-  </si>
-  <si>
     <t>Verificar y finalizar la Lista de Historia de Usuarios</t>
   </si>
   <si>
@@ -443,13 +437,13 @@
     <t>mAI-DPS</t>
   </si>
   <si>
-    <t>Diaz/T, Zegarra/JP, Maylle/DF</t>
+    <t>Diaz/T, Zegarra/JP</t>
   </si>
   <si>
     <t>S9</t>
   </si>
   <si>
-    <t>Zegarra/JP, Monzon/DB, Diaz/T, Maylle/DF</t>
+    <t>Zegarra/JP, Monzon/DB, Diaz/T</t>
   </si>
   <si>
     <t>Reporte del Tercer Sprint</t>
@@ -2536,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F33" s="26">
         <v>45423.0</v>
@@ -2553,16 +2547,16 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>93</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F34" s="26">
         <v>45427.0</v>
@@ -2600,7 +2594,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="3"/>
@@ -2611,10 +2605,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>95</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>96</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>42</v>
@@ -2633,10 +2627,10 @@
     </row>
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="53" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>98</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="55"/>
@@ -2650,13 +2644,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>84</v>
@@ -2677,7 +2671,7 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>55</v>
@@ -2686,7 +2680,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="26">
         <v>45437.0</v>
@@ -2703,7 +2697,7 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>64</v>
@@ -2712,7 +2706,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="26">
         <v>45437.0</v>
@@ -2729,7 +2723,7 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>68</v>
@@ -2738,7 +2732,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F41" s="26">
         <v>45439.0</v>
@@ -2755,13 +2749,13 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>109</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>42</v>
@@ -2796,7 +2790,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>60</v>
@@ -2805,7 +2799,7 @@
         <v>61</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F43" s="26">
         <v>45439.0</v>
@@ -2837,16 +2831,16 @@
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="E44" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="F44" s="26">
         <v>45440.0</v>
@@ -2863,16 +2857,16 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="15"/>
       <c r="B45" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="E45" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>119</v>
       </c>
       <c r="F45" s="26">
         <v>45441.0</v>
@@ -2884,7 +2878,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J45" s="32"/>
       <c r="K45" s="3"/>
@@ -2901,7 +2895,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46" s="26">
         <v>45445.0</v>
@@ -2921,10 +2915,10 @@
         <v>76</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>42</v>
@@ -2939,7 +2933,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J47" s="32"/>
       <c r="K47" s="3"/>
@@ -2947,13 +2941,13 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="15"/>
       <c r="B48" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="37" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>127</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>42</v>
@@ -2972,10 +2966,10 @@
     </row>
     <row r="49" ht="23.25" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60"/>
@@ -4820,78 +4814,78 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" ht="30.75" customHeight="1">
       <c r="B3" s="67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -5911,135 +5905,135 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" ht="87.0" customHeight="1">
       <c r="B4" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="E4" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="V4" s="81" t="s">
         <v>154</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="V4" s="81" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" ht="89.25" customHeight="1">
       <c r="B5" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="E5" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="V5" s="81" t="s">
         <v>159</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" s="81" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" ht="88.5" customHeight="1">
       <c r="B6" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="E6" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="V6" s="81" t="s">
         <v>164</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="V6" s="81" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" ht="84.75" customHeight="1">
       <c r="B7" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="V7" s="81" t="s">
         <v>167</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="V7" s="81" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" ht="81.75" customHeight="1">
       <c r="B8" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="79" t="s">
+      <c r="V8" s="81" t="s">
         <v>171</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="V8" s="81" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" ht="75.75" customHeight="1">
       <c r="B9" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="79" t="s">
+      <c r="V9" s="81" t="s">
         <v>175</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="V9" s="81" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" ht="78.75" customHeight="1">
       <c r="B10" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="79" t="s">
+      <c r="V10" s="81" t="s">
         <v>179</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="V10" s="81" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6063,73 +6057,73 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>150</v>
-      </c>
       <c r="D3" s="82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" s="83"/>
     </row>
     <row r="4" ht="54.0" customHeight="1">
       <c r="B4" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="83"/>
     </row>
     <row r="5" ht="51.0" customHeight="1">
       <c r="B5" s="84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="83"/>
     </row>
     <row r="6" ht="48.75" customHeight="1">
       <c r="B6" s="84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="83"/>
     </row>
     <row r="7" ht="48.75" customHeight="1">
       <c r="B7" s="84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="83"/>
     </row>
     <row r="8" ht="48.0" customHeight="1">
       <c r="B8" s="84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="83"/>
     </row>
